--- a/testcase/pushproxy/pushProxy.xlsx
+++ b/testcase/pushproxy/pushProxy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8085"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
   <si>
     <t>模块</t>
   </si>
@@ -698,7 +698,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,16 +742,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,47 +766,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,22 +782,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,18 +810,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,67 +850,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,115 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,47 +1055,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,11 +1083,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,10 +1164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,133 +1176,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1747,7 +1747,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2123,7 +2123,9 @@
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" t="s">
         <v>49</v>
       </c>
@@ -2152,7 +2154,9 @@
       <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" t="s">
         <v>53</v>
       </c>
@@ -2179,6 +2183,9 @@
       <c r="B14" s="7"/>
       <c r="D14" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -2208,7 +2215,9 @@
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" t="s">
         <v>57</v>
       </c>
@@ -2237,7 +2246,9 @@
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
@@ -2266,7 +2277,9 @@
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" t="s">
         <v>61</v>
       </c>
@@ -2295,7 +2308,9 @@
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" t="s">
         <v>63</v>
       </c>
@@ -2323,6 +2338,9 @@
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" t="s">
         <v>65</v>
       </c>
@@ -2344,6 +2362,9 @@
       <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" t="s">
         <v>70</v>
       </c>
@@ -2371,7 +2392,9 @@
       <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" t="s">
         <v>76</v>
       </c>
@@ -2399,7 +2422,9 @@
       <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" t="s">
         <v>78</v>
       </c>
@@ -2427,7 +2452,9 @@
       <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" t="s">
         <v>80</v>
       </c>
@@ -2455,7 +2482,9 @@
       <c r="D24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" t="s">
         <v>82</v>
       </c>
@@ -2483,7 +2512,9 @@
       <c r="D25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" t="s">
         <v>84</v>
       </c>
@@ -2511,7 +2542,9 @@
       <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" t="s">
         <v>86</v>
       </c>
@@ -2539,7 +2572,9 @@
       <c r="D27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" t="s">
         <v>88</v>
       </c>
@@ -2567,7 +2602,9 @@
       <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F28" t="s">
         <v>90</v>
       </c>
@@ -2594,6 +2631,9 @@
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F29" t="s">
         <v>92</v>
       </c>
@@ -2614,6 +2654,9 @@
       </c>
       <c r="D30" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
@@ -2642,7 +2685,9 @@
       <c r="D31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" t="s">
         <v>99</v>
       </c>
@@ -2670,7 +2715,9 @@
       <c r="D32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" t="s">
         <v>101</v>
       </c>
@@ -2698,7 +2745,9 @@
       <c r="D33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F33" t="s">
         <v>103</v>
       </c>
@@ -2726,7 +2775,9 @@
       <c r="D34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F34" t="s">
         <v>105</v>
       </c>
@@ -2754,7 +2805,9 @@
       <c r="D35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" t="s">
         <v>107</v>
       </c>
@@ -2782,7 +2835,9 @@
       <c r="D36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F36" t="s">
         <v>109</v>
       </c>
@@ -2810,7 +2865,9 @@
       <c r="D37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F37" t="s">
         <v>111</v>
       </c>
@@ -2836,6 +2893,9 @@
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F38" t="s">
         <v>113</v>

--- a/testcase/pushproxy/pushProxy.xlsx
+++ b/testcase/pushproxy/pushProxy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="112">
   <si>
     <t>模块</t>
   </si>
@@ -89,9 +89,7 @@
 3.执行接口</t>
   </si>
   <si>
-    <t>{
-"retCode": 0
-}</t>
+    <t>反参数据正确</t>
   </si>
   <si>
     <t>程睿</t>
@@ -203,7 +201,7 @@
 适用于每个接口测试用例，执行接口测试用后查看数据表</t>
   </si>
   <si>
-    <t>t_push_token表字段存储正常</t>
+    <t>数据存储正常</t>
   </si>
   <si>
     <t>NTC10</t>
@@ -228,12 +226,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-"retCode": 0,
-"rowKey": "123_456_789_HJASDFLK"
-}</t>
-  </si>
-  <si>
     <t>有效等价类testcase</t>
   </si>
   <si>
@@ -357,6 +349,9 @@
   </si>
   <si>
     <t>通过查询接口验证存储数据（查询接口暂未实现）</t>
+  </si>
+  <si>
+    <t>数据存储正确</t>
   </si>
   <si>
     <t>可以通过手机查看推送的消息</t>
@@ -390,12 +385,6 @@
 3.执行接口</t>
   </si>
   <si>
-    <t>{
-"retCode": 不为0，
-"retMsg":错误信息
-}</t>
-  </si>
-  <si>
     <t>单独对每个参数取非定义值（边界值、特殊字符）</t>
   </si>
   <si>
@@ -504,9 +493,6 @@
   </si>
   <si>
     <t>RTC10</t>
-  </si>
-  <si>
-    <t>t_push_token表无数据存储</t>
   </si>
   <si>
     <t>RTC11</t>
@@ -531,13 +517,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-"retCode": 不为0,
-"retMsg":错误信息,
-"rowKey": "123_456_789_HJASDFLK"
-}</t>
-  </si>
-  <si>
     <t>单独对每个参数取非定义值</t>
   </si>
   <si>
@@ -650,9 +629,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -697,15 +676,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,14 +715,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -736,17 +730,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,13 +765,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -781,23 +782,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,21 +812,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -850,187 +829,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,26 +1038,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,23 +1080,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,15 +1117,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,10 +1143,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,133 +1155,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1745,9 +1724,9 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2107,7 +2086,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>22</v>
@@ -2121,28 +2100,28 @@
       <c r="B12" s="7"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="202.5" spans="1:13">
@@ -2152,28 +2131,28 @@
       <c r="B13" s="7"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="202.5" spans="1:13">
@@ -2182,28 +2161,28 @@
       </c>
       <c r="B14" s="7"/>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="202.5" spans="1:13">
@@ -2213,28 +2192,28 @@
       <c r="B15" s="7"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="202.5" spans="1:13">
@@ -2244,28 +2223,28 @@
       <c r="B16" s="7"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="310.5" spans="1:13">
@@ -2275,28 +2254,28 @@
       <c r="B17" s="7"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="310.5" spans="1:13">
@@ -2306,28 +2285,28 @@
       <c r="B18" s="7"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:13">
@@ -2342,15 +2321,17 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="6"/>
       <c r="M19" s="2" t="s">
         <v>68</v>
       </c>
@@ -2378,10 +2359,10 @@
         <v>73</v>
       </c>
       <c r="K20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="108" spans="1:13">
@@ -2396,22 +2377,22 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="108" spans="1:13">
@@ -2426,22 +2407,22 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="108" spans="1:13">
@@ -2456,22 +2437,22 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="108" spans="1:13">
@@ -2486,22 +2467,22 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="108" spans="1:13">
@@ -2516,22 +2497,22 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="108" spans="1:13">
@@ -2546,22 +2527,22 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="108" spans="1:13">
@@ -2576,22 +2557,22 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="108" spans="1:13">
@@ -2606,22 +2587,22 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:14">
@@ -2635,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>41</v>
@@ -2644,7 +2625,7 @@
         <v>42</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="N29" s="2"/>
     </row>
@@ -2659,25 +2640,25 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" ht="142.5" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="135" spans="1:13">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -2689,25 +2670,25 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" ht="142.5" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="135" spans="1:13">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -2719,25 +2700,25 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="142.5" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="135" spans="1:13">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -2749,25 +2730,25 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" ht="142.5" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="121.5" spans="1:13">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -2779,25 +2760,25 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="142.5" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="135" spans="1:13">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -2809,25 +2790,25 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" ht="142.5" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="135" spans="1:13">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -2839,25 +2820,25 @@
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" ht="142.5" spans="1:13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="135" spans="1:13">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2869,22 +2850,22 @@
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:13">
@@ -2898,17 +2879,19 @@
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="K38" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K38" s="6"/>
       <c r="M38" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="5:5">

--- a/testcase/pushproxy/pushProxy.xlsx
+++ b/testcase/pushproxy/pushProxy.xlsx
@@ -630,9 +630,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -676,14 +676,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -693,6 +731,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,59 +782,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -781,6 +797,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -791,30 +814,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,13 +829,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +955,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,37 +979,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,109 +1009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,30 +1038,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1079,6 +1055,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1089,8 +1106,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,26 +1129,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,10 +1143,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,133 +1155,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1721,12 +1721,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1740,13 +1740,13 @@
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="38.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="38.25" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="29.625" customWidth="1"/>
-    <col min="13" max="13" width="35.75" customWidth="1"/>
-    <col min="14" max="14" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="29.625" customWidth="1"/>
+    <col min="12" max="12" width="35.75" customWidth="1"/>
+    <col min="13" max="13" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1774,20 +1774,20 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="162" spans="1:14">
+    <row r="2" ht="162" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1810,18 +1810,18 @@
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" ht="108" spans="1:13">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" ht="108" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1844,14 +1844,14 @@
       <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="108" spans="1:13">
+    <row r="4" customFormat="1" ht="108" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1875,14 +1875,14 @@
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="108" spans="1:13">
+    <row r="5" customFormat="1" ht="108" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1906,14 +1906,14 @@
       <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="108" spans="1:13">
+    <row r="6" customFormat="1" ht="108" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1937,14 +1937,14 @@
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="108" spans="1:13">
+    <row r="7" customFormat="1" ht="108" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1968,14 +1968,14 @@
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="J7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="108" spans="1:13">
+    <row r="8" customFormat="1" ht="108" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1999,14 +1999,14 @@
       <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="108" spans="1:13">
+    <row r="9" customFormat="1" ht="108" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2030,14 +2030,14 @@
       <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="J9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="54" spans="1:14">
+    <row r="10" ht="54" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2057,12 +2057,12 @@
       <c r="I10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" ht="202.5" spans="1:14">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" ht="202.5" spans="1:13">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2085,15 +2085,15 @@
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" ht="202.5" spans="1:13">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" ht="202.5" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2117,14 +2117,14 @@
       <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="202.5" spans="1:13">
+    <row r="13" customFormat="1" ht="202.5" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2148,14 +2148,14 @@
       <c r="I13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="202.5" spans="1:13">
+    <row r="14" ht="202.5" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2178,14 +2178,14 @@
       <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="J14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="202.5" spans="1:13">
+    <row r="15" customFormat="1" ht="202.5" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2209,14 +2209,14 @@
       <c r="I15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="202.5" spans="1:13">
+    <row r="16" customFormat="1" ht="202.5" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2240,14 +2240,14 @@
       <c r="I16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="J16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="310.5" spans="1:13">
+    <row r="17" customFormat="1" ht="310.5" spans="1:12">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2271,14 +2271,14 @@
       <c r="I17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="J17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="310.5" spans="1:13">
+    <row r="18" customFormat="1" ht="310.5" spans="1:12">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2302,14 +2302,14 @@
       <c r="I18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="J18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" ht="40.5" spans="1:13">
+    <row r="19" ht="40.5" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2329,14 +2329,14 @@
       <c r="I19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" ht="175.5" spans="1:13">
+    <row r="20" ht="175.5" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -2358,14 +2358,14 @@
       <c r="I20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="J20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="108" spans="1:13">
+    <row r="21" customFormat="1" ht="108" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -2388,14 +2388,14 @@
       <c r="I21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="J21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="108" spans="1:13">
+    <row r="22" customFormat="1" ht="108" spans="1:12">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -2418,14 +2418,14 @@
       <c r="I22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="108" spans="1:13">
+    <row r="23" customFormat="1" ht="108" spans="1:12">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2448,14 +2448,14 @@
       <c r="I23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="J23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="108" spans="1:13">
+    <row r="24" customFormat="1" ht="108" spans="1:12">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2478,14 +2478,14 @@
       <c r="I24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="J24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="108" spans="1:13">
+    <row r="25" customFormat="1" ht="108" spans="1:12">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -2508,14 +2508,14 @@
       <c r="I25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="J25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="108" spans="1:13">
+    <row r="26" customFormat="1" ht="108" spans="1:12">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2538,14 +2538,14 @@
       <c r="I26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="J26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="108" spans="1:13">
+    <row r="27" customFormat="1" ht="108" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2568,14 +2568,14 @@
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="J27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="108" spans="1:13">
+    <row r="28" customFormat="1" ht="108" spans="1:12">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2598,14 +2598,14 @@
       <c r="I28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="J28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" ht="54" spans="1:14">
+    <row r="29" ht="54" spans="1:13">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -2624,12 +2624,12 @@
       <c r="I29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" ht="202.5" spans="1:13">
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" ht="202.5" spans="1:12">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2651,14 +2651,14 @@
       <c r="I30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="J30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="135" spans="1:13">
+    <row r="31" customFormat="1" ht="135" spans="1:12">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -2681,14 +2681,14 @@
       <c r="I31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="J31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="135" spans="1:13">
+    <row r="32" customFormat="1" ht="135" spans="1:12">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -2711,14 +2711,14 @@
       <c r="I32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="135" spans="1:13">
+    <row r="33" customFormat="1" ht="135" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -2741,14 +2741,14 @@
       <c r="I33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="J33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="121.5" spans="1:13">
+    <row r="34" customFormat="1" ht="121.5" spans="1:12">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -2771,14 +2771,14 @@
       <c r="I34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="J34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="135" spans="1:13">
+    <row r="35" customFormat="1" ht="135" spans="1:12">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -2801,14 +2801,14 @@
       <c r="I35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="2" t="s">
+      <c r="J35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="135" spans="1:13">
+    <row r="36" customFormat="1" ht="135" spans="1:12">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -2831,14 +2831,14 @@
       <c r="I36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="135" spans="1:13">
+    <row r="37" customFormat="1" ht="135" spans="1:12">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2861,14 +2861,14 @@
       <c r="I37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="J37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" ht="40.5" spans="1:13">
+    <row r="38" ht="40.5" spans="1:12">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -2887,10 +2887,10 @@
       <c r="I38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="J38" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>111</v>
       </c>
     </row>
